--- a/Code/Results/Cases/Case_2_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_128/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.6733721854321</v>
+        <v>10.52666939636015</v>
       </c>
       <c r="C2">
-        <v>12.99459432852757</v>
+        <v>9.054858149168012</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.07773772247951</v>
+        <v>16.26962362656793</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.106934150359017</v>
+        <v>3.687180368146247</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.45726445267054</v>
+        <v>32.63602809777574</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.13017085980559</v>
+        <v>11.89819788035099</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.74830777534316</v>
+        <v>10.36722544794065</v>
       </c>
       <c r="C3">
-        <v>12.04399337024471</v>
+        <v>8.736599914076832</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26.89916676799857</v>
+        <v>15.35947500710867</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.118149428551401</v>
+        <v>3.690685420601557</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.82749717549834</v>
+        <v>32.119942038948</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.18549415465684</v>
+        <v>11.75815151589214</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.15365190277641</v>
+        <v>10.27286681707926</v>
       </c>
       <c r="C4">
-        <v>11.48078271522965</v>
+        <v>8.537844792923561</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.50640306144263</v>
+        <v>14.7777930532572</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.125136467061694</v>
+        <v>3.69294296036939</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.81248802033537</v>
+        <v>31.8010068668614</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.57854084836193</v>
+        <v>11.67565650702839</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.90445348616134</v>
+        <v>10.23536489433787</v>
       </c>
       <c r="C5">
-        <v>11.24643792731919</v>
+        <v>8.456143148135002</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.92444061671538</v>
+        <v>14.5352840896444</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.128012991902791</v>
+        <v>3.693889550902492</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.39542762079381</v>
+        <v>31.67062624487979</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.32426009708657</v>
+        <v>11.64295873680934</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.86265465023039</v>
+        <v>10.22919680489135</v>
       </c>
       <c r="C6">
-        <v>11.20723350890878</v>
+        <v>8.442538043682463</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.82692161868618</v>
+        <v>14.49469446763265</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.128492510030782</v>
+        <v>3.69404834298294</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.32597385844212</v>
+        <v>31.64895484617255</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.28161287328608</v>
+        <v>11.63758599494237</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.15031915826467</v>
+        <v>10.27235712949926</v>
       </c>
       <c r="C7">
-        <v>11.47764182227364</v>
+        <v>8.536745615573668</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.49861349587805</v>
+        <v>14.77454423173287</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.125175137573568</v>
+        <v>3.692955618468436</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.80687703480197</v>
+        <v>31.79925003694136</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.57513985757928</v>
+        <v>11.6752117575025</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.35983881564581</v>
+        <v>10.47099471666843</v>
       </c>
       <c r="C8">
-        <v>12.67166160468832</v>
+        <v>8.945893208708929</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.33766180245603</v>
+        <v>15.96069639732649</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.11078273034744</v>
+        <v>3.688367099185589</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.89836918030498</v>
+        <v>32.45857116020861</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.80992375360548</v>
+        <v>11.84920996145398</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.52852152691687</v>
+        <v>10.88590085727118</v>
       </c>
       <c r="C9">
-        <v>14.91447193180272</v>
+        <v>9.716410415222509</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.49542357276857</v>
+        <v>18.10541171851309</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.083159145069462</v>
+        <v>3.680200238989138</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>39.88327930190039</v>
+        <v>33.73063383505158</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.02649171561957</v>
+        <v>12.21624412587892</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.01124258440018</v>
+        <v>11.20249500382399</v>
       </c>
       <c r="C10">
-        <v>16.4592540236355</v>
+        <v>10.25682024703986</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.0799880688491</v>
+        <v>19.72590634603953</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.062905948378443</v>
+        <v>3.674699361316546</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.74346024434122</v>
+        <v>34.64655190349175</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.54401124205082</v>
+        <v>12.49899878719998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.66526573134471</v>
+        <v>11.34828729605643</v>
       </c>
       <c r="C11">
-        <v>17.14341807594096</v>
+        <v>10.49597935423284</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.67851039132712</v>
+        <v>20.42214917594453</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.053613154643519</v>
+        <v>3.67230369729545</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>44.03300187666901</v>
+        <v>35.05796437956845</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.21396292949493</v>
+        <v>12.62989342896227</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.91033289731007</v>
+        <v>11.40368532875158</v>
       </c>
       <c r="C12">
-        <v>17.40021053167191</v>
+        <v>10.58550414858688</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.28047220912823</v>
+        <v>20.67995164483167</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.05007381922335</v>
+        <v>3.671411743424828</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.52007740148926</v>
+        <v>35.21290454612928</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.46509517732475</v>
+        <v>12.67973701746218</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.85766264482517</v>
+        <v>11.39174695560266</v>
       </c>
       <c r="C13">
-        <v>17.34500043170964</v>
+        <v>10.56627078264433</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.15095595669241</v>
+        <v>20.62468886293896</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.050837143641592</v>
+        <v>3.671603165998047</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.41522406130211</v>
+        <v>35.17957486983175</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.41111687075235</v>
+        <v>12.66899079063549</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.68547740778575</v>
+        <v>11.35284149180559</v>
       </c>
       <c r="C14">
-        <v>17.16458789292383</v>
+        <v>10.50336586911309</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.72809351388764</v>
+        <v>20.44347576966054</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.053322436335806</v>
+        <v>3.672230011087673</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>44.07309589662021</v>
+        <v>35.070729044082</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.23467279228381</v>
+        <v>12.63398882944611</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.57968204521174</v>
+        <v>11.32903356517829</v>
       </c>
       <c r="C15">
-        <v>17.05379498201595</v>
+        <v>10.46469721339704</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.4686813354265</v>
+        <v>20.33171679116245</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.054841806235681</v>
+        <v>3.67261595211718</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.86338529695045</v>
+        <v>35.00394390533246</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.12627373969912</v>
+        <v>12.61258367824585</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.96811700607862</v>
+        <v>11.19299718590051</v>
       </c>
       <c r="C16">
-        <v>16.41419994408662</v>
+        <v>10.24104927533424</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>36.9749765337727</v>
+        <v>19.67958472674569</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.063510927568514</v>
+        <v>3.674858061263754</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.65898513496384</v>
+        <v>34.61955108617422</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.49984822243338</v>
+        <v>12.49048591551105</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.58792715450132</v>
+        <v>11.10995028277924</v>
       </c>
       <c r="C17">
-        <v>16.01732575970697</v>
+        <v>10.10207890583352</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.05123240448862</v>
+        <v>19.26906567543916</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.068802924481185</v>
+        <v>3.676260773865155</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.9174119142132</v>
+        <v>34.38232408705281</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.11057956592275</v>
+        <v>12.41612850864091</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.36730110293407</v>
+        <v>11.06235450788991</v>
       </c>
       <c r="C18">
-        <v>15.78728003107175</v>
+        <v>10.02152256083806</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.51680912091879</v>
+        <v>19.02909147484874</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.071839875042373</v>
+        <v>3.677077628133659</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>41.48975615709542</v>
+        <v>34.24538955202871</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.88473954629175</v>
+        <v>12.3735765426531</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.29225618061151</v>
+        <v>11.04627070929097</v>
       </c>
       <c r="C19">
-        <v>15.70907520407274</v>
+        <v>9.994142932409382</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.3352939421537</v>
+        <v>18.9471772249569</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.072867201662266</v>
+        <v>3.677355930678804</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>41.34475618642689</v>
+        <v>34.19894515877935</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.80793010552483</v>
+        <v>12.35920786609869</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.62859859242056</v>
+        <v>11.11877358734593</v>
       </c>
       <c r="C20">
-        <v>16.05975475861973</v>
+        <v>10.11693775490017</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.14988008843915</v>
+        <v>19.31316479497694</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>2.068240352584631</v>
+        <v>3.67611041328568</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.99646727388038</v>
+        <v>34.40762852387608</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.15221651264133</v>
+        <v>12.42402193966674</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.73611981333974</v>
+        <v>11.36426433333394</v>
       </c>
       <c r="C21">
-        <v>17.21763803614906</v>
+        <v>10.52187136722456</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.85237854738697</v>
+        <v>20.49686091879133</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>2.052593077384539</v>
+        <v>3.672045478996158</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>44.17361694412094</v>
+        <v>35.10272361479862</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.28656504618169</v>
+        <v>12.64426263934269</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.44501714196179</v>
+        <v>11.52578324948083</v>
       </c>
       <c r="C22">
-        <v>17.96129363531408</v>
+        <v>10.78042920001486</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.59978172800155</v>
+        <v>21.23639546055286</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>2.042242617773301</v>
+        <v>3.669477541289486</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.58955877522502</v>
+        <v>35.55199460043686</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.0132017211788</v>
+        <v>12.7897924093039</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.06790070392098</v>
+        <v>11.43950013171811</v>
       </c>
       <c r="C23">
-        <v>17.56544137688881</v>
+        <v>10.64301306587373</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.66840168551355</v>
+        <v>20.84479841004908</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>2.047781603111974</v>
+        <v>3.670840016370481</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.83430014210861</v>
+        <v>35.31270061123987</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.6265911325121</v>
+        <v>12.71199122965749</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.61021744543487</v>
+        <v>11.11478410230026</v>
       </c>
       <c r="C24">
-        <v>16.04057848398365</v>
+        <v>10.11022212018468</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.10529199683685</v>
+        <v>19.29323992440774</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>2.068494707789293</v>
+        <v>3.676178358851217</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.96073047246534</v>
+        <v>34.39619009224631</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.13339884316805</v>
+        <v>12.42045270182471</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.96232090675532</v>
+        <v>10.77132237292633</v>
       </c>
       <c r="C25">
-        <v>14.32693388135799</v>
+        <v>9.512064450417725</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.13973320731195</v>
+        <v>17.53979093795894</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>2.090598420850283</v>
+        <v>3.682321370716225</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38.81774525042092</v>
+        <v>33.38936394186408</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.44745655412796</v>
+        <v>12.11445622438158</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_128/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.52666939636015</v>
+        <v>12.67337218543206</v>
       </c>
       <c r="C2">
-        <v>9.054858149168012</v>
+        <v>12.99459432852754</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.26962362656793</v>
+        <v>29.07773772247955</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.687180368146247</v>
+        <v>2.106934150359413</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.63602809777574</v>
+        <v>36.45726445267089</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.89819788035099</v>
+        <v>13.13017085980558</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.36722544794065</v>
+        <v>11.74830777534323</v>
       </c>
       <c r="C3">
-        <v>8.736599914076832</v>
+        <v>12.04399337024475</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.35947500710867</v>
+        <v>26.89916676799862</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.690685420601557</v>
+        <v>2.11814942855113</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.119942038948</v>
+        <v>34.82749717549859</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.75815151589214</v>
+        <v>12.1854941546569</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.27286681707926</v>
+        <v>11.15365190277655</v>
       </c>
       <c r="C4">
-        <v>8.537844792923561</v>
+        <v>11.48078271522966</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.7777930532572</v>
+        <v>25.50640306144264</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.69294296036939</v>
+        <v>2.12513646706143</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.8010068668614</v>
+        <v>33.81248802033544</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.67565650702839</v>
+        <v>11.57854084836201</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.23536489433787</v>
+        <v>10.90445348616144</v>
       </c>
       <c r="C5">
-        <v>8.456143148135002</v>
+        <v>11.24643792731921</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.5352840896444</v>
+        <v>24.92444061671523</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.693889550902492</v>
+        <v>2.128012991902791</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.67062624487979</v>
+        <v>33.39542762079401</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.64295873680934</v>
+        <v>11.32426009708661</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.22919680489135</v>
+        <v>10.86265465023041</v>
       </c>
       <c r="C6">
-        <v>8.442538043682463</v>
+        <v>11.20723350890876</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.49469446763265</v>
+        <v>24.82692161868614</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.69404834298294</v>
+        <v>2.128492510030778</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.64895484617255</v>
+        <v>33.32597385844242</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.63758599494237</v>
+        <v>11.28161287328611</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.27235712949926</v>
+        <v>11.15031915826464</v>
       </c>
       <c r="C7">
-        <v>8.536745615573668</v>
+        <v>11.47764182227366</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.77454423173287</v>
+        <v>25.49861349587792</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.692955618468436</v>
+        <v>2.125175137573831</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.79925003694136</v>
+        <v>33.80687703480226</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.6752117575025</v>
+        <v>11.5751398575793</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.47099471666843</v>
+        <v>12.35983881564596</v>
       </c>
       <c r="C8">
-        <v>8.945893208708929</v>
+        <v>12.67166160468837</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.96069639732649</v>
+        <v>28.33766180245615</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.688367099185589</v>
+        <v>2.110782730347054</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.45857116020861</v>
+        <v>35.89836918030532</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.84920996145398</v>
+        <v>12.80992375360557</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.88590085727118</v>
+        <v>14.52852152691695</v>
       </c>
       <c r="C9">
-        <v>9.716410415222509</v>
+        <v>14.91447193180272</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.10541171851309</v>
+        <v>33.49542357276854</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.680200238989138</v>
+        <v>2.083159145069459</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.73063383505158</v>
+        <v>39.88327930190054</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.21624412587892</v>
+        <v>15.02649171561961</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.20249500382399</v>
+        <v>16.01124258440018</v>
       </c>
       <c r="C10">
-        <v>10.25682024703986</v>
+        <v>16.45925402363566</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.72590634603953</v>
+        <v>37.07998806884913</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>3.674699361316546</v>
+        <v>2.062905948378308</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.64655190349175</v>
+        <v>42.7434602443415</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.49899878719998</v>
+        <v>16.54401124205086</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.34828729605643</v>
+        <v>16.66526573134472</v>
       </c>
       <c r="C11">
-        <v>10.49597935423284</v>
+        <v>17.14341807594104</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.42214917594453</v>
+        <v>38.67851039132722</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>3.67230369729545</v>
+        <v>2.053613154643519</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.05796437956845</v>
+        <v>44.03300187666964</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.62989342896227</v>
+        <v>17.21396292949496</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.40368532875158</v>
+        <v>16.91033289731013</v>
       </c>
       <c r="C12">
-        <v>10.58550414858688</v>
+        <v>17.40021053167176</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.67995164483167</v>
+        <v>39.28047220912821</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.671411743424828</v>
+        <v>2.050073819222971</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.21290454612928</v>
+        <v>44.5200774014896</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.67973701746218</v>
+        <v>17.46509517732476</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.39174695560266</v>
+        <v>16.857662644825</v>
       </c>
       <c r="C13">
-        <v>10.56627078264433</v>
+        <v>17.34500043170965</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.62468886293896</v>
+        <v>39.15095595669234</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.671603165998047</v>
+        <v>2.050837143641456</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.17957486983175</v>
+        <v>44.4152240613023</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.66899079063549</v>
+        <v>17.41111687075227</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.35284149180559</v>
+        <v>16.68547740778582</v>
       </c>
       <c r="C14">
-        <v>10.50336586911309</v>
+        <v>17.16458789292384</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.44347576966054</v>
+        <v>38.72809351388776</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>3.672230011087673</v>
+        <v>2.053322436335941</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.070729044082</v>
+        <v>44.07309589662037</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.63398882944611</v>
+        <v>17.23467279228385</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.32903356517829</v>
+        <v>16.57968204521174</v>
       </c>
       <c r="C15">
-        <v>10.46469721339704</v>
+        <v>17.05379498201614</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.33171679116245</v>
+        <v>38.46868133542646</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.67261595211718</v>
+        <v>2.054841806235677</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.00394390533246</v>
+        <v>43.86338529695103</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.61258367824585</v>
+        <v>17.12627373969913</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.19299718590051</v>
+        <v>15.96811700607869</v>
       </c>
       <c r="C16">
-        <v>10.24104927533424</v>
+        <v>16.41419994408666</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.67958472674569</v>
+        <v>36.97497653377272</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.674858061263754</v>
+        <v>2.063510927568389</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.61955108617422</v>
+        <v>42.65898513496408</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.49048591551105</v>
+        <v>16.49984822243349</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.10995028277924</v>
+        <v>15.58792715450153</v>
       </c>
       <c r="C17">
-        <v>10.10207890583352</v>
+        <v>16.01732575970706</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.26906567543916</v>
+        <v>36.05123240448891</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>3.676260773865155</v>
+        <v>2.068802924481448</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.38232408705281</v>
+        <v>41.91741191421357</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.41612850864091</v>
+        <v>16.11057956592293</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.06235450788991</v>
+        <v>15.36730110293401</v>
       </c>
       <c r="C18">
-        <v>10.02152256083806</v>
+        <v>15.78728003107182</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.02909147484874</v>
+        <v>35.51680912091864</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.677077628133659</v>
+        <v>2.071839875042626</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.24538955202871</v>
+        <v>41.48975615709566</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.3735765426531</v>
+        <v>15.88473954629172</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.04627070929097</v>
+        <v>15.29225618061143</v>
       </c>
       <c r="C19">
-        <v>9.994142932409382</v>
+        <v>15.70907520407283</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.9471772249569</v>
+        <v>35.33529394215366</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>3.677355930678804</v>
+        <v>2.072867201662137</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.19894515877935</v>
+        <v>41.344756186427</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.35920786609869</v>
+        <v>15.80793010552477</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.11877358734593</v>
+        <v>15.62859859242051</v>
       </c>
       <c r="C20">
-        <v>10.11693775490017</v>
+        <v>16.0597547586198</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.31316479497694</v>
+        <v>36.14988008843915</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>3.67611041328568</v>
+        <v>2.068240352584769</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.40762852387608</v>
+        <v>41.99646727388075</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.42402193966674</v>
+        <v>16.15221651264137</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.36426433333394</v>
+        <v>16.73611981333981</v>
       </c>
       <c r="C21">
-        <v>10.52187136722456</v>
+        <v>17.217638036149</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.49686091879133</v>
+        <v>38.85237854738698</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.672045478996158</v>
+        <v>2.052593077384425</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.10272361479862</v>
+        <v>44.17361694412104</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.64426263934269</v>
+        <v>17.28656504618168</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.52578324948083</v>
+        <v>17.44501714196172</v>
       </c>
       <c r="C22">
-        <v>10.78042920001486</v>
+        <v>17.961293635314</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.23639546055286</v>
+        <v>40.59978172800147</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>3.669477541289486</v>
+        <v>2.042242617773694</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.55199460043686</v>
+        <v>45.58955877522494</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.7897924093039</v>
+        <v>18.01320172117871</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.43950013171811</v>
+        <v>17.06790070392089</v>
       </c>
       <c r="C23">
-        <v>10.64301306587373</v>
+        <v>17.56544137688849</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.84479841004908</v>
+        <v>39.66840168551326</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>3.670840016370481</v>
+        <v>2.047781603112127</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.31270061123987</v>
+        <v>44.83430014210788</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.71199122965749</v>
+        <v>17.62659113251194</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.11478410230026</v>
+        <v>15.61021744543479</v>
       </c>
       <c r="C24">
-        <v>10.11022212018468</v>
+        <v>16.04057848398356</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.29323992440774</v>
+        <v>36.10529199683683</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>3.676178358851217</v>
+        <v>2.068494707789168</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.39619009224631</v>
+        <v>41.96073047246541</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.42045270182471</v>
+        <v>16.13339884316796</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.77132237292633</v>
+        <v>13.96232090675537</v>
       </c>
       <c r="C25">
-        <v>9.512064450417725</v>
+        <v>14.32693388135781</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.53979093795894</v>
+        <v>32.13973320731193</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>3.682321370716225</v>
+        <v>2.090598420849891</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.38936394186408</v>
+        <v>38.81774525042071</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.11445622438158</v>
+        <v>14.44745655412792</v>
       </c>
       <c r="L25">
         <v>0</v>
